--- a/Data/Excel/Proto/Ticket.xlsx
+++ b/Data/Excel/Proto/Ticket.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF105A7E-B634-4325-B07A-5A3C3B890D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91DEAB-4530-4FDA-8CC3-6509C514A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>스테미너</t>
+  </si>
+  <si>
+    <t>TICKET_STAMINA</t>
   </si>
 </sst>
 </file>
@@ -985,9 +988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1032,8 +1040,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>201</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>

--- a/Data/Excel/Proto/Ticket.xlsx
+++ b/Data/Excel/Proto/Ticket.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91DEAB-4530-4FDA-8CC3-6509C514A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C6821-6DA2-4614-8AB2-5B9BFE6712FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Type</t>
   </si>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>TICKET_STAMINA</t>
+  </si>
+  <si>
+    <t>NameKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_STAMINA_NAME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -986,35 +994,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1030,29 +1042,38 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>30</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Ticket.xlsx
+++ b/Data/Excel/Proto/Ticket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C6821-6DA2-4614-8AB2-5B9BFE6712FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD710CD5-45DB-403D-A4BF-2F643A0482B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="2700" yWindow="1005" windowWidth="15600" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Type</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>TICKET_STAMINA_NAME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconSprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon1#Icon1_3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -994,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1018,7 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1037,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1045,8 +1060,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1075,6 +1093,9 @@
       </c>
       <c r="F4">
         <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/Ticket.xlsx
+++ b/Data/Excel/Proto/Ticket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD710CD5-45DB-403D-A4BF-2F643A0482B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB9CFE5-21CA-4C23-BCF0-B789201F4339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1005" windowWidth="15600" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20310" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -63,15 +63,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IconSprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Icon1#Icon1_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
